--- a/statistics/performance_table_3.xlsx
+++ b/statistics/performance_table_3.xlsx
@@ -19,7 +19,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="M6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0" shapeId="0">
+    <comment ref="U9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -883,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y11" authorId="0" shapeId="0">
+    <comment ref="Z11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -927,11 +927,131 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-lr=0.99*lr каждые 100 bnthfwbq</t>
+lr=0.99*lr каждые 100 итераций</t>
         </r>
       </text>
     </comment>
     <comment ref="J12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lr=0.99*lr каждые 100 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Точки перегенерируются каждые 10 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Результаты, полученные в неправильной реализации, завышающей количество слоёв</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+lr=0.99*lr каждые 100 итераций</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +1080,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
   <si>
     <t>эксперимент</t>
   </si>
@@ -1153,6 +1273,63 @@
   <si>
     <t>(k2^2-w2)</t>
   </si>
+  <si>
+    <t>2*100*100*FL*100*100*2</t>
+  </si>
+  <si>
+    <t>2*100*FL*FL*FL*100*2</t>
+  </si>
+  <si>
+    <t>2*100*100*FL*FL*100*2</t>
+  </si>
+  <si>
+    <t>exp35(1)</t>
+  </si>
+  <si>
+    <t>exp35(2)</t>
+  </si>
+  <si>
+    <t>exp35(3)</t>
+  </si>
+  <si>
+    <t>exp35(4)</t>
+  </si>
+  <si>
+    <t>exp35(5)</t>
+  </si>
+  <si>
+    <t>exp36(1)</t>
+  </si>
+  <si>
+    <t>exp36(2)</t>
+  </si>
+  <si>
+    <t>exp36(3)</t>
+  </si>
+  <si>
+    <t>замена переменной</t>
+  </si>
+  <si>
+    <t>exp36(4)</t>
+  </si>
+  <si>
+    <t>x-&gt;x/1.5, t-&gt;t/1.5</t>
+  </si>
+  <si>
+    <t>x-&gt;x/2, t-&gt;t/2</t>
+  </si>
+  <si>
+    <t>x-&gt;x/3, t-&gt;t/3</t>
+  </si>
+  <si>
+    <t>q-&gt;q/5</t>
+  </si>
+  <si>
+    <t>exp35(6)</t>
+  </si>
+  <si>
+    <t>2*100*FL*FL*100*100*2</t>
+  </si>
 </sst>
 </file>
 
@@ -1161,7 +1338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,6 +1360,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1432,7 +1616,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:f>Sheet1!$N$12:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1450,7 +1634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$12:$V$14</c:f>
+              <c:f>Sheet1!$W$12:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1488,7 +1672,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1506,7 +1690,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$15:$V$17</c:f>
+              <c:f>Sheet1!$W$15:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1544,7 +1728,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:f>Sheet1!$N$18:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1562,7 +1746,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$18:$V$20</c:f>
+              <c:f>Sheet1!$W$18:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1588,11 +1772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141243592"/>
-        <c:axId val="141251912"/>
+        <c:axId val="293731176"/>
+        <c:axId val="302698368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141243592"/>
+        <c:axId val="293731176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1706,13 +1890,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141251912"/>
+        <c:crossAx val="302698368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141251912"/>
+        <c:axId val="302698368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1828,7 +2012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141243592"/>
+        <c:crossAx val="293731176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -1966,7 +2150,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:f>Sheet1!$N$12:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1984,7 +2168,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$12:$X$14</c:f>
+              <c:f>Sheet1!$Y$12:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2022,7 +2206,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2040,7 +2224,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$15:$X$17</c:f>
+              <c:f>Sheet1!$Y$15:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2078,7 +2262,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:f>Sheet1!$N$18:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2096,7 +2280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$18:$X$20</c:f>
+              <c:f>Sheet1!$Y$18:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2135,7 +2319,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2153,7 +2337,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$21:$X$23</c:f>
+              <c:f>Sheet1!$Y$21:$Y$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2192,7 +2376,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:f>Sheet1!$N$24:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2210,7 +2394,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$24:$X$26</c:f>
+              <c:f>Sheet1!$Y$24:$Y$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2249,7 +2433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2267,7 +2451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$27:$X$29</c:f>
+              <c:f>Sheet1!$Y$27:$Y$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2293,11 +2477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142868584"/>
-        <c:axId val="142868192"/>
+        <c:axId val="305256312"/>
+        <c:axId val="305257880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142868584"/>
+        <c:axId val="305256312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -2411,13 +2595,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142868192"/>
+        <c:crossAx val="305257880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142868192"/>
+        <c:axId val="305257880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2533,7 +2717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142868584"/>
+        <c:crossAx val="305256312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -2671,7 +2855,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:f>Sheet1!$N$12:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2689,7 +2873,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$12:$Y$14</c:f>
+              <c:f>Sheet1!$Z$12:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2727,7 +2911,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2745,7 +2929,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$15:$Y$17</c:f>
+              <c:f>Sheet1!$Z$15:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2783,7 +2967,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:f>Sheet1!$N$18:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2801,7 +2985,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$18:$Y$20</c:f>
+              <c:f>Sheet1!$Z$18:$Z$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2840,7 +3024,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2858,7 +3042,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$21:$Y$23</c:f>
+              <c:f>Sheet1!$Z$21:$Z$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2897,7 +3081,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:f>Sheet1!$N$24:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2915,7 +3099,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$24:$Y$26</c:f>
+              <c:f>Sheet1!$Z$24:$Z$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2954,7 +3138,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2972,7 +3156,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$27:$Y$29</c:f>
+              <c:f>Sheet1!$Z$27:$Z$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2998,11 +3182,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142874072"/>
-        <c:axId val="142868976"/>
+        <c:axId val="305260624"/>
+        <c:axId val="305254744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142874072"/>
+        <c:axId val="305260624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -3116,13 +3300,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142868976"/>
+        <c:crossAx val="305254744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142868976"/>
+        <c:axId val="305254744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3238,7 +3422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142874072"/>
+        <c:crossAx val="305260624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -3376,7 +3560,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:f>Sheet1!$N$12:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3394,7 +3578,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$12:$W$14</c:f>
+              <c:f>Sheet1!$X$12:$X$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3432,7 +3616,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3450,7 +3634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$15:$W$17</c:f>
+              <c:f>Sheet1!$X$15:$X$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3488,7 +3672,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:f>Sheet1!$N$18:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3506,7 +3690,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$18:$W$20</c:f>
+              <c:f>Sheet1!$X$18:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3545,7 +3729,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3563,7 +3747,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$21:$W$23</c:f>
+              <c:f>Sheet1!$X$21:$X$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3602,7 +3786,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:f>Sheet1!$N$24:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3620,7 +3804,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$24:$W$26</c:f>
+              <c:f>Sheet1!$X$24:$X$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3659,7 +3843,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3677,7 +3861,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$27:$W$29</c:f>
+              <c:f>Sheet1!$X$27:$X$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3703,11 +3887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142874856"/>
-        <c:axId val="142869760"/>
+        <c:axId val="305261016"/>
+        <c:axId val="305261408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142874856"/>
+        <c:axId val="305261016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -3821,13 +4005,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142869760"/>
+        <c:crossAx val="305261408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142869760"/>
+        <c:axId val="305261408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3943,7 +4127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142874856"/>
+        <c:crossAx val="305261016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -4046,7 +4230,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4112,7 +4295,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$12:$Q$20</c:f>
+              <c:f>Sheet1!$R$12:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4148,7 +4331,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$12:$V$20</c:f>
+              <c:f>Sheet1!$W$12:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4192,11 +4375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500779944"/>
-        <c:axId val="500787000"/>
+        <c:axId val="302701688"/>
+        <c:axId val="306183776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500779944"/>
+        <c:axId val="302701688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4253,12 +4436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500787000"/>
+        <c:crossAx val="306183776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500787000"/>
+        <c:axId val="306183776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4316,7 +4499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500779944"/>
+        <c:crossAx val="302701688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4405,7 +4588,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4437,7 +4619,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15701181102362205"/>
+          <c:y val="0.19721055701370663"/>
+          <c:w val="0.80420341207349078"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4471,7 +4663,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$21:$Q$29</c:f>
+              <c:f>Sheet1!$R$21:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4507,7 +4699,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$21:$V$29</c:f>
+              <c:f>Sheet1!$W$21:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4551,11 +4743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="498861072"/>
-        <c:axId val="498863424"/>
+        <c:axId val="306179856"/>
+        <c:axId val="306186128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="498861072"/>
+        <c:axId val="306179856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,12 +4804,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498863424"/>
+        <c:crossAx val="306186128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="498863424"/>
+        <c:axId val="306186128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4675,7 +4867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498861072"/>
+        <c:crossAx val="306179856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4837,7 +5029,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:f>Sheet1!$N$12:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4855,7 +5047,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$12:$W$14</c:f>
+              <c:f>Sheet1!$X$12:$X$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4893,7 +5085,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4911,7 +5103,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$15:$W$17</c:f>
+              <c:f>Sheet1!$X$15:$X$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4949,7 +5141,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:f>Sheet1!$N$18:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4967,7 +5159,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$18:$W$20</c:f>
+              <c:f>Sheet1!$X$18:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4993,11 +5185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141957752"/>
-        <c:axId val="141966336"/>
+        <c:axId val="304389688"/>
+        <c:axId val="303115584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141957752"/>
+        <c:axId val="304389688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -5111,13 +5303,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141966336"/>
+        <c:crossAx val="303115584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141966336"/>
+        <c:axId val="303115584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5233,7 +5425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141957752"/>
+        <c:crossAx val="304389688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -5434,7 +5626,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:f>Sheet1!$N$12:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5452,7 +5644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$12:$X$14</c:f>
+              <c:f>Sheet1!$Y$12:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5490,7 +5682,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5508,7 +5700,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$15:$X$17</c:f>
+              <c:f>Sheet1!$Y$15:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5546,7 +5738,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:f>Sheet1!$N$18:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5564,7 +5756,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$18:$X$20</c:f>
+              <c:f>Sheet1!$Y$18:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5590,11 +5782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142004664"/>
-        <c:axId val="142018376"/>
+        <c:axId val="304644512"/>
+        <c:axId val="304502480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142004664"/>
+        <c:axId val="304644512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -5708,13 +5900,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142018376"/>
+        <c:crossAx val="304502480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142018376"/>
+        <c:axId val="304502480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5830,7 +6022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142004664"/>
+        <c:crossAx val="304644512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -6033,7 +6225,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:f>Sheet1!$N$12:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6051,7 +6243,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$12:$Y$14</c:f>
+              <c:f>Sheet1!$Z$12:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6089,7 +6281,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6107,7 +6299,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$15:$X$17</c:f>
+              <c:f>Sheet1!$Y$15:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6145,7 +6337,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:f>Sheet1!$N$18:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6163,7 +6355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$18:$X$20</c:f>
+              <c:f>Sheet1!$Y$18:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6189,11 +6381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141989328"/>
-        <c:axId val="142084672"/>
+        <c:axId val="305147752"/>
+        <c:axId val="305156336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141989328"/>
+        <c:axId val="305147752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -6307,13 +6499,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142084672"/>
+        <c:crossAx val="305156336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142084672"/>
+        <c:axId val="305156336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6429,7 +6621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141989328"/>
+        <c:crossAx val="305147752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -6632,7 +6824,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6650,7 +6842,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$21:$V$23</c:f>
+              <c:f>Sheet1!$W$21:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6688,7 +6880,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:f>Sheet1!$N$24:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6706,7 +6898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$24:$V$26</c:f>
+              <c:f>Sheet1!$W$24:$W$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6744,7 +6936,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6762,7 +6954,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$27:$V$29</c:f>
+              <c:f>Sheet1!$W$27:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6788,11 +6980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142112672"/>
-        <c:axId val="142113456"/>
+        <c:axId val="302700904"/>
+        <c:axId val="302699728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142112672"/>
+        <c:axId val="302700904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -6906,13 +7098,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142113456"/>
+        <c:crossAx val="302699728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142113456"/>
+        <c:axId val="302699728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7028,7 +7220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142112672"/>
+        <c:crossAx val="302700904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -7229,7 +7421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7247,7 +7439,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$21:$W$23</c:f>
+              <c:f>Sheet1!$X$21:$X$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7285,7 +7477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:f>Sheet1!$N$24:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7303,7 +7495,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$24:$W$26</c:f>
+              <c:f>Sheet1!$X$24:$X$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7341,7 +7533,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7359,7 +7551,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$27:$W$29</c:f>
+              <c:f>Sheet1!$X$27:$X$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7385,11 +7577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142110712"/>
-        <c:axId val="142114240"/>
+        <c:axId val="302702472"/>
+        <c:axId val="305258272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142110712"/>
+        <c:axId val="302702472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -7503,13 +7695,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142114240"/>
+        <c:crossAx val="305258272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142114240"/>
+        <c:axId val="305258272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7625,7 +7817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142110712"/>
+        <c:crossAx val="302702472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -7826,7 +8018,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7844,7 +8036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$21:$X$23</c:f>
+              <c:f>Sheet1!$Y$21:$Y$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7882,7 +8074,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:f>Sheet1!$N$24:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7900,7 +8092,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$24:$X$26</c:f>
+              <c:f>Sheet1!$Y$24:$Y$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7938,7 +8130,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7956,7 +8148,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$27:$X$29</c:f>
+              <c:f>Sheet1!$Y$27:$Y$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7982,11 +8174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142111496"/>
-        <c:axId val="142114632"/>
+        <c:axId val="305260232"/>
+        <c:axId val="305255136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142111496"/>
+        <c:axId val="305260232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -8100,13 +8292,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142114632"/>
+        <c:crossAx val="305255136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142114632"/>
+        <c:axId val="305255136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8222,7 +8414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142111496"/>
+        <c:crossAx val="305260232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -8423,7 +8615,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8441,7 +8633,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$21:$Y$23</c:f>
+              <c:f>Sheet1!$Z$21:$Z$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8479,7 +8671,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:f>Sheet1!$N$24:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8497,7 +8689,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$24:$Y$26</c:f>
+              <c:f>Sheet1!$Z$24:$Z$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8535,7 +8727,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8553,7 +8745,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$27:$Y$29</c:f>
+              <c:f>Sheet1!$Z$27:$Z$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8579,11 +8771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142111888"/>
-        <c:axId val="142112280"/>
+        <c:axId val="305258664"/>
+        <c:axId val="305259056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142111888"/>
+        <c:axId val="305258664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -8697,13 +8889,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142112280"/>
+        <c:crossAx val="305259056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142112280"/>
+        <c:axId val="305259056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8819,7 +9011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142111888"/>
+        <c:crossAx val="305258664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -8957,7 +9149,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$M$14</c:f>
+              <c:f>Sheet1!$N$12:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8975,7 +9167,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$12:$V$14</c:f>
+              <c:f>Sheet1!$W$12:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9013,7 +9205,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$M$17</c:f>
+              <c:f>Sheet1!$N$15:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9031,7 +9223,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$15:$V$17</c:f>
+              <c:f>Sheet1!$W$15:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9069,7 +9261,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$M$20</c:f>
+              <c:f>Sheet1!$N$18:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9087,7 +9279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$18:$V$20</c:f>
+              <c:f>Sheet1!$W$18:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9126,7 +9318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$21:$M$23</c:f>
+              <c:f>Sheet1!$N$21:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9144,7 +9336,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$21:$V$23</c:f>
+              <c:f>Sheet1!$W$21:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9183,7 +9375,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$24:$M$26</c:f>
+              <c:f>Sheet1!$N$24:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9201,7 +9393,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$24:$V$26</c:f>
+              <c:f>Sheet1!$W$24:$W$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9240,7 +9432,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$27:$M$29</c:f>
+              <c:f>Sheet1!$N$27:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9258,7 +9450,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$27:$V$29</c:f>
+              <c:f>Sheet1!$W$27:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -9284,11 +9476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142115808"/>
-        <c:axId val="142116200"/>
+        <c:axId val="305257488"/>
+        <c:axId val="305259448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142115808"/>
+        <c:axId val="305257488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -9402,13 +9594,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142116200"/>
+        <c:crossAx val="305259448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142116200"/>
+        <c:axId val="305259448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9524,7 +9716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142115808"/>
+        <c:crossAx val="305257488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -17400,13 +17592,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
@@ -17430,15 +17622,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17462,13 +17654,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
@@ -17494,15 +17686,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17526,13 +17718,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
@@ -17558,15 +17750,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17590,13 +17782,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
@@ -17622,15 +17814,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17654,15 +17846,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>191060</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>115700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17686,15 +17878,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17718,15 +17910,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17750,15 +17942,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>54068</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17782,16 +17974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17812,16 +18004,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18132,10 +18324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y67" sqref="Y67"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18150,26 +18342,27 @@
     <col min="8" max="8" width="8.28515625" style="23" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="17" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="17" customWidth="1"/>
-    <col min="12" max="16" width="7.42578125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="30" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="30" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="18" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" style="18" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="19"/>
-    <col min="23" max="23" width="9.140625" style="20"/>
-    <col min="24" max="25" width="9.140625" style="19"/>
-    <col min="26" max="26" width="8.42578125" style="7" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="15"/>
-    <col min="28" max="28" width="10.28515625" style="15" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" style="16" customWidth="1"/>
-    <col min="30" max="38" width="9.140625" style="15"/>
-    <col min="39" max="39" width="11.28515625" style="15" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="15"/>
+    <col min="11" max="11" width="19.42578125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="17" customWidth="1"/>
+    <col min="13" max="17" width="7.42578125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="30" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="18" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="18" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="19"/>
+    <col min="24" max="24" width="9.140625" style="20"/>
+    <col min="25" max="26" width="9.140625" style="19"/>
+    <col min="27" max="27" width="8.42578125" style="7" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="15"/>
+    <col min="29" max="29" width="10.28515625" style="15" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" style="16" customWidth="1"/>
+    <col min="31" max="39" width="9.140625" style="15"/>
+    <col min="40" max="40" width="11.28515625" style="15" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18201,54 +18394,57 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="R1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="S1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="7"/>
-      <c r="AC1" s="9"/>
+      <c r="AA1" s="7"/>
+      <c r="AD1" s="9"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
@@ -18279,56 +18475,59 @@
       <c r="J2" s="12">
         <v>30000</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="12">
         <v>2</v>
       </c>
-      <c r="L2" s="22">
+      <c r="M2" s="22">
         <v>0</v>
       </c>
-      <c r="M2" s="23">
+      <c r="N2" s="23">
         <v>2.5</v>
       </c>
-      <c r="N2" s="23">
+      <c r="O2" s="23">
         <v>-2</v>
-      </c>
-      <c r="O2" s="23">
-        <v>2.1</v>
       </c>
       <c r="P2" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q2" s="30">
-        <f>M2*M2-O2</f>
-        <v>4.1500000000000004</v>
+      <c r="Q2" s="23">
+        <v>2.1</v>
       </c>
       <c r="R2" s="30">
         <f>N2*N2-P2</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="S2" s="30">
+        <f>O2*O2-Q2</f>
         <v>1.9</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="13">
+      <c r="U2" s="13">
         <v>14103</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="14">
+      <c r="W2" s="14">
         <v>9.6399999999999992E-6</v>
       </c>
-      <c r="W2" s="14">
+      <c r="X2" s="14">
         <v>9.8800000000000003E-6</v>
       </c>
-      <c r="X2" s="14">
+      <c r="Y2" s="14">
         <v>2.6280000000000001E-2</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Z2" s="14">
         <v>0.192</v>
       </c>
-      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
@@ -18359,56 +18558,59 @@
       <c r="J3" s="17">
         <v>30000</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="17">
         <v>2</v>
       </c>
-      <c r="L3" s="23">
+      <c r="M3" s="23">
         <v>0.1</v>
       </c>
-      <c r="M3" s="23">
+      <c r="N3" s="23">
         <v>2.5</v>
       </c>
-      <c r="N3" s="23">
+      <c r="O3" s="23">
         <v>-2</v>
-      </c>
-      <c r="O3" s="23">
-        <v>2.1</v>
       </c>
       <c r="P3" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q3" s="30">
-        <f t="shared" ref="Q3:Q29" si="0">M3*M3-O3</f>
+      <c r="Q3" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="R3" s="30">
+        <f t="shared" ref="R3:R29" si="0">N3*N3-P3</f>
         <v>4.1500000000000004</v>
       </c>
-      <c r="R3" s="30">
-        <f t="shared" ref="R3:R11" si="1">N3*N3-P3</f>
+      <c r="S3" s="30">
+        <f t="shared" ref="S3:S11" si="1">O3*O3-Q3</f>
         <v>1.9</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="T3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="U3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="V3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="19">
+      <c r="W3" s="19">
         <v>4.2580000000000002E-5</v>
       </c>
-      <c r="W3" s="19">
+      <c r="X3" s="19">
         <v>3.8689999999999997E-5</v>
       </c>
-      <c r="X3" s="19">
+      <c r="Y3" s="19">
         <v>3.2499999999999999E-3</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Z3" s="19">
         <v>2.605E-2</v>
       </c>
-      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -18439,56 +18641,59 @@
       <c r="J4" s="17">
         <v>30000</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="17">
         <v>2</v>
       </c>
-      <c r="L4" s="23">
+      <c r="M4" s="23">
         <v>0.1</v>
       </c>
-      <c r="M4" s="23">
+      <c r="N4" s="23">
         <v>2.5</v>
       </c>
-      <c r="N4" s="23">
+      <c r="O4" s="23">
         <v>-2</v>
-      </c>
-      <c r="O4" s="23">
-        <v>2.1</v>
       </c>
       <c r="P4" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="R4" s="30">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="R4" s="30">
+      <c r="S4" s="30">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="T4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="18">
+      <c r="U4" s="18">
         <v>14161</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="19">
+      <c r="W4" s="19">
         <v>7.7899999999999996E-5</v>
       </c>
-      <c r="W4" s="19">
+      <c r="X4" s="19">
         <v>8.0690000000000002E-5</v>
       </c>
-      <c r="X4" s="19">
+      <c r="Y4" s="19">
         <v>5.5500000000000005E-4</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Z4" s="19">
         <v>6.9100000000000003E-3</v>
       </c>
-      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -18519,56 +18724,59 @@
       <c r="J5" s="17">
         <v>30000</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="17">
         <v>2</v>
       </c>
-      <c r="L5" s="23">
+      <c r="M5" s="23">
         <v>0.1</v>
       </c>
-      <c r="M5" s="23">
+      <c r="N5" s="23">
         <v>2.5</v>
       </c>
-      <c r="N5" s="23">
+      <c r="O5" s="23">
         <v>-2</v>
-      </c>
-      <c r="O5" s="23">
-        <v>2.1</v>
       </c>
       <c r="P5" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="R5" s="30">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="R5" s="30">
+      <c r="S5" s="30">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="T5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="18">
+      <c r="U5" s="18">
         <v>14400</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="19">
+      <c r="W5" s="19">
         <v>9.1500000000000001E-5</v>
       </c>
-      <c r="W5" s="19">
+      <c r="X5" s="19">
         <v>9.5699999999999995E-5</v>
       </c>
-      <c r="X5" s="19">
+      <c r="Y5" s="19">
         <v>2.15E-3</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Z5" s="19">
         <v>2.929E-2</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
@@ -18599,56 +18807,59 @@
       <c r="J6" s="17">
         <v>30000</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="17">
         <v>2</v>
       </c>
-      <c r="L6" s="23">
+      <c r="M6" s="23">
         <v>0.1</v>
       </c>
-      <c r="M6" s="23">
+      <c r="N6" s="23">
         <v>2.5</v>
       </c>
-      <c r="N6" s="23">
+      <c r="O6" s="23">
         <v>-2</v>
-      </c>
-      <c r="O6" s="23">
-        <v>2.1</v>
       </c>
       <c r="P6" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="R6" s="30">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="R6" s="30">
+      <c r="S6" s="30">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="T6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="18">
+      <c r="U6" s="18">
         <v>14304</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="V6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="19">
+      <c r="W6" s="19">
         <v>3.5599999999999998E-5</v>
       </c>
-      <c r="W6" s="19">
+      <c r="X6" s="19">
         <v>3.0800000000000003E-5</v>
       </c>
-      <c r="X6" s="19">
+      <c r="Y6" s="19">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Z6" s="19">
         <v>5.0470000000000001E-2</v>
       </c>
-      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -18679,56 +18890,59 @@
       <c r="J7" s="17">
         <v>30000</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="17">
         <v>2</v>
       </c>
-      <c r="L7" s="23">
+      <c r="M7" s="23">
         <v>0.1</v>
       </c>
-      <c r="M7" s="23">
+      <c r="N7" s="23">
         <v>1.8</v>
       </c>
-      <c r="N7" s="23">
+      <c r="O7" s="23">
         <v>-1.6</v>
-      </c>
-      <c r="O7" s="23">
-        <v>2.1</v>
       </c>
       <c r="P7" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="R7" s="30">
         <f t="shared" si="0"/>
         <v>1.1400000000000001</v>
       </c>
-      <c r="R7" s="30">
+      <c r="S7" s="30">
         <f t="shared" si="1"/>
         <v>0.46000000000000041</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="T7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="18">
+      <c r="U7" s="18">
         <v>4816</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="V7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="19">
+      <c r="W7" s="19">
         <v>2.7599999999999998E-6</v>
       </c>
-      <c r="W7" s="19">
+      <c r="X7" s="19">
         <v>2.5500000000000001E-6</v>
       </c>
-      <c r="X7" s="19">
+      <c r="Y7" s="19">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Z7" s="19">
         <v>7.6800000000000002E-3</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -18759,56 +18973,59 @@
       <c r="J8" s="17">
         <v>30000</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="17">
         <v>2</v>
       </c>
-      <c r="L8" s="23">
+      <c r="M8" s="23">
         <v>0</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N8" s="23">
         <v>1.8</v>
       </c>
-      <c r="N8" s="23">
+      <c r="O8" s="23">
         <v>-1.6</v>
-      </c>
-      <c r="O8" s="23">
-        <v>2.1</v>
       </c>
       <c r="P8" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="R8" s="30">
         <f t="shared" si="0"/>
         <v>1.1400000000000001</v>
       </c>
-      <c r="R8" s="30">
+      <c r="S8" s="30">
         <f t="shared" si="1"/>
         <v>0.46000000000000041</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="T8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="18">
+      <c r="U8" s="18">
         <v>7418</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="V8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="19">
+      <c r="W8" s="19">
         <v>1.37E-6</v>
       </c>
-      <c r="W8" s="19">
+      <c r="X8" s="19">
         <v>1.215E-6</v>
       </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="19">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Z8" s="19">
         <v>0.125</v>
       </c>
-      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
@@ -18839,56 +19056,59 @@
       <c r="J9" s="17">
         <v>30000</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="17">
         <v>2</v>
       </c>
-      <c r="L9" s="23">
+      <c r="M9" s="23">
         <v>0.1</v>
       </c>
-      <c r="M9" s="23">
+      <c r="N9" s="23">
         <v>2.5</v>
       </c>
-      <c r="N9" s="23">
+      <c r="O9" s="23">
         <v>-2</v>
       </c>
-      <c r="O9" s="23">
+      <c r="P9" s="23">
         <v>4</v>
       </c>
-      <c r="P9" s="23">
+      <c r="Q9" s="23">
         <v>2.5</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="R9" s="30">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="R9" s="30">
+      <c r="S9" s="30">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="T9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="18">
+      <c r="U9" s="18">
         <v>12366</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="V9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="19">
+      <c r="W9" s="19">
         <v>2.5199999999999999E-5</v>
       </c>
-      <c r="W9" s="19">
+      <c r="X9" s="19">
         <v>2.3099999999999999E-5</v>
       </c>
-      <c r="X9" s="19">
+      <c r="Y9" s="19">
         <v>2.0699999999999998E-3</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Z9" s="19">
         <v>6.7299999999999999E-3</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
@@ -18919,56 +19139,59 @@
       <c r="J10" s="17">
         <v>30000</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="17">
         <v>2</v>
       </c>
-      <c r="L10" s="23">
+      <c r="M10" s="23">
         <v>0</v>
       </c>
-      <c r="M10" s="23">
+      <c r="N10" s="23">
         <v>2.5</v>
       </c>
-      <c r="N10" s="23">
+      <c r="O10" s="23">
         <v>-2</v>
       </c>
-      <c r="O10" s="23">
+      <c r="P10" s="23">
         <v>0.5</v>
       </c>
-      <c r="P10" s="23">
+      <c r="Q10" s="23">
         <v>1</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="R10" s="30">
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="R10" s="30">
+      <c r="S10" s="30">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="T10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="18">
+      <c r="U10" s="18">
         <v>12431</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="V10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V10" s="19">
+      <c r="W10" s="19">
         <v>3.725E-4</v>
       </c>
-      <c r="W10" s="19">
+      <c r="X10" s="19">
         <v>3.4479999999999998E-4</v>
       </c>
-      <c r="X10" s="19">
+      <c r="Y10" s="19">
         <v>2.4950000000000001</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Z10" s="19">
         <v>2.948</v>
       </c>
-      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>41</v>
       </c>
@@ -18999,56 +19222,59 @@
       <c r="J11" s="26">
         <v>30000</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="26">
         <v>2</v>
       </c>
-      <c r="L11" s="27">
+      <c r="M11" s="27">
         <v>0</v>
       </c>
-      <c r="M11" s="27">
+      <c r="N11" s="27">
         <v>2.8</v>
       </c>
-      <c r="N11" s="27">
+      <c r="O11" s="27">
         <v>-2.6</v>
-      </c>
-      <c r="O11" s="27">
-        <v>2.1</v>
       </c>
       <c r="P11" s="27">
         <v>2.1</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="R11" s="31">
         <f t="shared" si="0"/>
         <v>5.7399999999999984</v>
       </c>
-      <c r="R11" s="31">
+      <c r="S11" s="31">
         <f t="shared" si="1"/>
         <v>4.66</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="T11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="T11" s="28">
+      <c r="U11" s="28">
         <v>12429</v>
       </c>
-      <c r="U11" s="28" t="s">
+      <c r="V11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="29">
+      <c r="W11" s="29">
         <v>6.7599999999999995E-4</v>
       </c>
-      <c r="W11" s="29">
+      <c r="X11" s="29">
         <v>8.0599999999999997E-4</v>
       </c>
-      <c r="X11" s="29">
+      <c r="Y11" s="29">
         <v>5.5890000000000004</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Z11" s="29">
         <v>4.3279999999999999E-2</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>44</v>
       </c>
@@ -19079,515 +19305,518 @@
       <c r="J12" s="17">
         <v>30000</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="17">
         <v>1</v>
       </c>
-      <c r="L12" s="23">
+      <c r="M12" s="23">
         <v>0</v>
       </c>
-      <c r="M12" s="23">
+      <c r="N12" s="23">
         <v>2</v>
       </c>
-      <c r="O12" s="23">
+      <c r="P12" s="23">
         <v>1.7</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="R12" s="30">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="T12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="V12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="19">
+      <c r="W12" s="19">
         <v>2.4650000000000001E-6</v>
       </c>
-      <c r="W12" s="19">
+      <c r="X12" s="19">
         <v>2.356E-6</v>
       </c>
-      <c r="X12" s="19">
+      <c r="Y12" s="19">
         <v>1.7260000000000001E-3</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="Z12" s="19">
         <v>9.5300000000000003E-3</v>
       </c>
-      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <v>1</v>
       </c>
-      <c r="L13" s="23">
+      <c r="M13" s="23">
         <v>0</v>
       </c>
-      <c r="M13" s="23">
+      <c r="N13" s="23">
         <v>2.5</v>
       </c>
-      <c r="O13" s="23">
+      <c r="P13" s="23">
         <v>1.7</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="R13" s="30">
         <f t="shared" si="0"/>
         <v>4.55</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="T13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U13" s="18" t="s">
+      <c r="V13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="19">
+      <c r="W13" s="19">
         <v>2.9300000000000002E-4</v>
       </c>
-      <c r="W13" s="19">
+      <c r="X13" s="19">
         <v>2.1369999999999999E-4</v>
       </c>
-      <c r="X13" s="19">
+      <c r="Y13" s="19">
         <v>0.42</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="Z13" s="19">
         <v>3.7370000000000001</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>1</v>
       </c>
-      <c r="L14" s="23">
+      <c r="M14" s="23">
         <v>0</v>
       </c>
-      <c r="M14" s="23">
+      <c r="N14" s="23">
         <v>3</v>
       </c>
-      <c r="O14" s="23">
+      <c r="P14" s="23">
         <v>1.7</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="R14" s="30">
         <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="S14" s="17" t="s">
+      <c r="T14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="V14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V14" s="19">
+      <c r="W14" s="19">
         <v>5.0770000000000003E-4</v>
       </c>
-      <c r="W14" s="19">
+      <c r="X14" s="19">
         <v>6.4099999999999997E-4</v>
       </c>
-      <c r="X14" s="19">
+      <c r="Y14" s="19">
         <v>2.9790000000000001</v>
       </c>
-      <c r="Y14" s="19">
+      <c r="Z14" s="19">
         <v>30.9</v>
       </c>
-      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>1</v>
       </c>
-      <c r="L15" s="23">
+      <c r="M15" s="23">
         <v>0</v>
       </c>
-      <c r="M15" s="23">
+      <c r="N15" s="23">
         <v>2</v>
       </c>
-      <c r="O15" s="23">
+      <c r="P15" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="R15" s="30">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="S15" s="17" t="s">
+      <c r="T15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="V15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V15" s="19">
+      <c r="W15" s="19">
         <v>2.12E-6</v>
       </c>
-      <c r="W15" s="19">
+      <c r="X15" s="19">
         <v>2.2400000000000002E-6</v>
       </c>
-      <c r="X15" s="19">
+      <c r="Y15" s="19">
         <v>7.6499999999999995E-4</v>
       </c>
-      <c r="Y15" s="19">
+      <c r="Z15" s="19">
         <v>4.2900000000000004E-3</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <v>1</v>
       </c>
-      <c r="L16" s="23">
+      <c r="M16" s="23">
         <v>0</v>
       </c>
-      <c r="M16" s="23">
+      <c r="N16" s="23">
         <v>2.5</v>
       </c>
-      <c r="O16" s="23">
+      <c r="P16" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="R16" s="30">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="S16" s="17" t="s">
+      <c r="T16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U16" s="18" t="s">
+      <c r="V16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V16" s="19">
+      <c r="W16" s="19">
         <v>8.4850000000000002E-5</v>
       </c>
-      <c r="W16" s="19">
+      <c r="X16" s="19">
         <v>8.7200000000000005E-5</v>
       </c>
-      <c r="X16" s="19">
+      <c r="Y16" s="19">
         <v>0.35399999999999998</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Z16" s="19">
         <v>3.17</v>
       </c>
-      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>1</v>
       </c>
-      <c r="L17" s="23">
+      <c r="M17" s="23">
         <v>0</v>
       </c>
-      <c r="M17" s="23">
+      <c r="N17" s="23">
         <v>3</v>
       </c>
-      <c r="O17" s="23">
+      <c r="P17" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="R17" s="30">
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="T17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="V17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="19">
+      <c r="W17" s="19">
         <v>4.8500000000000003E-4</v>
       </c>
-      <c r="W17" s="19">
+      <c r="X17" s="19">
         <v>5.7600000000000001E-4</v>
       </c>
-      <c r="X17" s="19">
+      <c r="Y17" s="19">
         <v>2.38</v>
       </c>
-      <c r="Y17" s="19">
+      <c r="Z17" s="19">
         <v>24.45</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>1</v>
       </c>
-      <c r="L18" s="23">
+      <c r="M18" s="23">
         <v>0</v>
       </c>
-      <c r="M18" s="23">
+      <c r="N18" s="23">
         <v>2</v>
       </c>
-      <c r="O18" s="23">
+      <c r="P18" s="23">
         <v>2.5</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="R18" s="30">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="S18" s="17" t="s">
+      <c r="T18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U18" s="18" t="s">
+      <c r="V18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V18" s="19">
+      <c r="W18" s="19">
         <v>2.0700000000000001E-6</v>
       </c>
-      <c r="W18" s="19">
+      <c r="X18" s="19">
         <v>1.917E-6</v>
       </c>
-      <c r="X18" s="19">
+      <c r="Y18" s="19">
         <v>2.0259999999999999E-4</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Z18" s="19">
         <v>1.0399999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>1</v>
       </c>
-      <c r="L19" s="23">
+      <c r="M19" s="23">
         <v>0</v>
       </c>
-      <c r="M19" s="23">
+      <c r="N19" s="23">
         <v>2.5</v>
       </c>
-      <c r="O19" s="23">
+      <c r="P19" s="23">
         <v>2.5</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="R19" s="30">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="T19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U19" s="18" t="s">
+      <c r="V19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V19" s="19">
+      <c r="W19" s="19">
         <v>3.0599999999999998E-5</v>
       </c>
-      <c r="W19" s="19">
+      <c r="X19" s="19">
         <v>3.4180000000000001E-5</v>
       </c>
-      <c r="X19" s="19">
+      <c r="Y19" s="19">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Z19" s="19">
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>1</v>
       </c>
-      <c r="L20" s="23">
+      <c r="M20" s="23">
         <v>0</v>
       </c>
-      <c r="M20" s="23">
+      <c r="N20" s="23">
         <v>3</v>
       </c>
-      <c r="O20" s="23">
+      <c r="P20" s="23">
         <v>2.5</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="R20" s="30">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="S20" s="17" t="s">
+      <c r="T20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U20" s="18" t="s">
+      <c r="V20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="19">
+      <c r="W20" s="19">
         <v>4.1970000000000001E-4</v>
       </c>
-      <c r="W20" s="19">
+      <c r="X20" s="19">
         <v>5.4379999999999999E-4</v>
       </c>
-      <c r="X20" s="19">
+      <c r="Y20" s="19">
         <v>2.145</v>
       </c>
-      <c r="Y20" s="19">
+      <c r="Z20" s="19">
         <v>22.2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>1</v>
       </c>
-      <c r="L21" s="23">
+      <c r="M21" s="23">
         <v>0.1</v>
       </c>
-      <c r="M21" s="23">
+      <c r="N21" s="23">
         <v>2</v>
       </c>
-      <c r="O21" s="23">
+      <c r="P21" s="23">
         <v>1.7</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="R21" s="30">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="T21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="V21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V21" s="19">
+      <c r="W21" s="19">
         <v>2.2900000000000001E-5</v>
       </c>
-      <c r="W21" s="19">
+      <c r="X21" s="19">
         <v>2.1500000000000001E-5</v>
       </c>
-      <c r="X21" s="19">
+      <c r="Y21" s="19">
         <v>4.06E-4</v>
       </c>
-      <c r="Y21" s="19">
+      <c r="Z21" s="19">
         <v>2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L22" s="17">
         <v>1</v>
       </c>
-      <c r="L22" s="23">
+      <c r="M22" s="23">
         <v>0.1</v>
       </c>
-      <c r="M22" s="23">
+      <c r="N22" s="23">
         <v>2.5</v>
       </c>
-      <c r="O22" s="23">
+      <c r="P22" s="23">
         <v>1.7</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="R22" s="30">
         <f t="shared" si="0"/>
         <v>4.55</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="T22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="V22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="19">
+      <c r="W22" s="19">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="W22" s="19">
+      <c r="X22" s="19">
         <v>1.37E-4</v>
       </c>
-      <c r="X22" s="19">
+      <c r="Y22" s="19">
         <v>1.005E-2</v>
       </c>
-      <c r="Y22" s="19">
+      <c r="Z22" s="19">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="17">
+      <c r="L23" s="17">
         <v>1</v>
       </c>
-      <c r="L23" s="23">
+      <c r="M23" s="23">
         <v>0.1</v>
       </c>
-      <c r="M23" s="23">
+      <c r="N23" s="23">
         <v>3</v>
       </c>
-      <c r="O23" s="23">
+      <c r="P23" s="23">
         <v>1.7</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="R23" s="30">
         <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="S23" s="17" t="s">
+      <c r="T23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U23" s="18" t="s">
+      <c r="V23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="19">
+      <c r="W23" s="19">
         <v>1.049E-3</v>
       </c>
-      <c r="W23" s="19">
+      <c r="X23" s="19">
         <v>7.5370000000000005E-4</v>
       </c>
-      <c r="X23" s="19">
+      <c r="Y23" s="19">
         <v>0.16070000000000001</v>
       </c>
-      <c r="Y23" s="19">
+      <c r="Z23" s="19">
         <v>1.53</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="17">
+      <c r="L24" s="17">
         <v>1</v>
       </c>
-      <c r="L24" s="23">
+      <c r="M24" s="23">
         <v>0.1</v>
       </c>
-      <c r="M24" s="23">
+      <c r="N24" s="23">
         <v>2</v>
       </c>
-      <c r="O24" s="23">
+      <c r="P24" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="R24" s="30">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="S24" s="17" t="s">
+      <c r="T24" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U24" s="18" t="s">
+      <c r="V24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="19">
+      <c r="W24" s="19">
         <v>1.5950000000000001E-5</v>
       </c>
-      <c r="W24" s="19">
+      <c r="X24" s="19">
         <v>1.486E-5</v>
       </c>
-      <c r="X24" s="19">
+      <c r="Y24" s="19">
         <v>8.8499999999999996E-5</v>
       </c>
-      <c r="Y24" s="19">
+      <c r="Z24" s="19">
         <v>6.2859999999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>57</v>
       </c>
@@ -19595,195 +19824,636 @@
       <c r="G25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="17">
+      <c r="L25" s="17">
         <v>1</v>
       </c>
-      <c r="L25" s="23">
+      <c r="M25" s="23">
         <v>0.1</v>
       </c>
-      <c r="M25" s="23">
+      <c r="N25" s="23">
         <v>2.5</v>
       </c>
-      <c r="O25" s="23">
+      <c r="P25" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="R25" s="30">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="T25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U25" s="18" t="s">
+      <c r="V25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="19">
+      <c r="W25" s="19">
         <v>1.4190000000000001E-4</v>
       </c>
-      <c r="W25" s="19">
+      <c r="X25" s="19">
         <v>1.417E-4</v>
       </c>
-      <c r="X25" s="19">
+      <c r="Y25" s="19">
         <v>7.1500000000000001E-3</v>
       </c>
-      <c r="Y25" s="19">
+      <c r="Z25" s="19">
         <v>6.8650000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="17">
+      <c r="L26" s="17">
         <v>1</v>
       </c>
-      <c r="L26" s="23">
+      <c r="M26" s="23">
         <v>0.1</v>
       </c>
-      <c r="M26" s="23">
+      <c r="N26" s="23">
         <v>3</v>
       </c>
-      <c r="O26" s="23">
+      <c r="P26" s="23">
         <v>2.1</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="R26" s="30">
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="S26" s="17" t="s">
+      <c r="T26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U26" s="18" t="s">
+      <c r="V26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V26" s="19">
+      <c r="W26" s="19">
         <v>7.9250000000000002E-4</v>
       </c>
-      <c r="W26" s="19">
+      <c r="X26" s="19">
         <v>6.1799999999999995E-4</v>
       </c>
-      <c r="X26" s="19">
+      <c r="Y26" s="19">
         <v>0.1056</v>
       </c>
-      <c r="Y26" s="19">
+      <c r="Z26" s="19">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="17">
+      <c r="L27" s="17">
         <v>1</v>
       </c>
-      <c r="L27" s="23">
+      <c r="M27" s="23">
         <v>0.1</v>
       </c>
-      <c r="M27" s="23">
+      <c r="N27" s="23">
         <v>2</v>
       </c>
-      <c r="O27" s="23">
+      <c r="P27" s="23">
         <v>2.5</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="R27" s="30">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="S27" s="17" t="s">
+      <c r="T27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U27" s="18" t="s">
+      <c r="V27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V27" s="19">
+      <c r="W27" s="19">
         <v>7.6790000000000005E-6</v>
       </c>
-      <c r="W27" s="19">
+      <c r="X27" s="19">
         <v>6.8199999999999999E-6</v>
       </c>
-      <c r="X27" s="19">
+      <c r="Y27" s="19">
         <v>2.5599999999999999E-5</v>
       </c>
-      <c r="Y27" s="19">
+      <c r="Z27" s="19">
         <v>1.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>1</v>
       </c>
-      <c r="L28" s="23">
+      <c r="M28" s="23">
         <v>0.1</v>
       </c>
-      <c r="M28" s="23">
+      <c r="N28" s="23">
         <v>2.5</v>
       </c>
-      <c r="O28" s="23">
+      <c r="P28" s="23">
         <v>2.5</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="R28" s="30">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="T28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="U28" s="18" t="s">
+      <c r="V28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="19">
+      <c r="W28" s="19">
         <v>9.9279999999999998E-5</v>
       </c>
-      <c r="W28" s="19">
+      <c r="X28" s="19">
         <v>1.0060000000000001E-4</v>
       </c>
-      <c r="X28" s="19">
+      <c r="Y28" s="19">
         <v>5.2500000000000003E-3</v>
       </c>
-      <c r="Y28" s="19">
+      <c r="Z28" s="19">
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="17">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26">
         <v>1</v>
       </c>
-      <c r="L29" s="23">
+      <c r="M29" s="27">
         <v>0.1</v>
       </c>
-      <c r="M29" s="23">
+      <c r="N29" s="27">
         <v>3</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="27"/>
+      <c r="P29" s="27">
         <v>2.5</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="27"/>
+      <c r="R29" s="31">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="S29" s="17" t="s">
+      <c r="S29" s="31"/>
+      <c r="T29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="U29" s="18" t="s">
+      <c r="U29" s="28"/>
+      <c r="V29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="V29" s="19">
+      <c r="W29" s="29">
         <v>5.8900000000000001E-4</v>
       </c>
-      <c r="W29" s="19">
+      <c r="X29" s="29">
         <v>4.7150000000000002E-4</v>
       </c>
-      <c r="X29" s="19">
+      <c r="Y29" s="29">
         <v>9.7699999999999995E-2</v>
       </c>
-      <c r="Y29" s="19">
+      <c r="Z29" s="29">
         <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="17">
+        <v>100</v>
+      </c>
+      <c r="H30" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="I30" s="17">
+        <v>200</v>
+      </c>
+      <c r="J30" s="17">
+        <v>30000</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="17">
+        <v>1</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0</v>
+      </c>
+      <c r="N30" s="23">
+        <v>2</v>
+      </c>
+      <c r="P30" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="R30" s="30">
+        <f t="shared" ref="R30" si="2">N30*N30-P30</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W30" s="19">
+        <v>4.3100000000000002E-6</v>
+      </c>
+      <c r="X30" s="19">
+        <v>4.8550000000000001E-6</v>
+      </c>
+      <c r="Y30" s="19">
+        <v>7.0899999999999999E-3</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="AA30" s="19">
+        <v>1.809E-6</v>
+      </c>
+      <c r="AB30" s="19">
+        <v>1.84E-6</v>
+      </c>
+      <c r="AC30" s="19">
+        <v>1.82E-3</v>
+      </c>
+      <c r="AD30" s="19">
+        <v>9.9670000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W31" s="19">
+        <v>4.2479999999999998E-6</v>
+      </c>
+      <c r="X31" s="19">
+        <v>4.4649999999999996E-6</v>
+      </c>
+      <c r="Y31" s="19">
+        <v>6.8199999999999997E-3</v>
+      </c>
+      <c r="Z31" s="19">
+        <v>3.9370000000000002E-2</v>
+      </c>
+      <c r="AA31" s="19">
+        <v>2.3499999999999999E-6</v>
+      </c>
+      <c r="AB31" s="19">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="AC31" s="19">
+        <v>3.1549999999999998E-3</v>
+      </c>
+      <c r="AD31" s="19">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V32" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W32" s="19">
+        <v>5.6899999999999997E-6</v>
+      </c>
+      <c r="X32" s="19">
+        <v>6.4760000000000003E-6</v>
+      </c>
+      <c r="Y32" s="19">
+        <v>8.1499999999999993E-3</v>
+      </c>
+      <c r="Z32" s="19">
+        <v>4.6949999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W33" s="19">
+        <v>6.2299999999999996E-6</v>
+      </c>
+      <c r="X33" s="19">
+        <v>5.5350000000000004E-6</v>
+      </c>
+      <c r="Y33" s="19">
+        <v>8.659E-3</v>
+      </c>
+      <c r="Z33" s="19">
+        <v>4.8259999999999997E-2</v>
+      </c>
+      <c r="AA33" s="19">
+        <v>2.1050000000000002E-6</v>
+      </c>
+      <c r="AB33" s="19">
+        <v>1.7489999999999999E-6</v>
+      </c>
+      <c r="AC33" s="19">
+        <v>1.908E-3</v>
+      </c>
+      <c r="AD33" s="19">
+        <v>1.0880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="V34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W34" s="19">
+        <v>4.18E-5</v>
+      </c>
+      <c r="X34" s="19">
+        <v>3.909E-5</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="Z34" s="19">
+        <v>5.9300000000000004E-3</v>
+      </c>
+      <c r="AA34" s="19">
+        <v>3.0599999999999998E-5</v>
+      </c>
+      <c r="AB34" s="19">
+        <v>2.6599999999999999E-5</v>
+      </c>
+      <c r="AC34" s="19">
+        <v>4.0900000000000002E-4</v>
+      </c>
+      <c r="AD34" s="19">
+        <v>2.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27">
+        <v>0</v>
+      </c>
+      <c r="N35" s="27">
+        <v>3</v>
+      </c>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="W35" s="29">
+        <v>7.67E-4</v>
+      </c>
+      <c r="X35" s="29">
+        <v>9.7550000000000002E-4</v>
+      </c>
+      <c r="Y35" s="29">
+        <v>3.8380000000000001</v>
+      </c>
+      <c r="Z35" s="29">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="AA35" s="19">
+        <v>5.9449999999999998E-4</v>
+      </c>
+      <c r="AB35" s="19">
+        <v>7.1500000000000003E-4</v>
+      </c>
+      <c r="AC35" s="19">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="AD35" s="19">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="17">
+        <v>100</v>
+      </c>
+      <c r="H36" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="I36" s="17">
+        <v>200</v>
+      </c>
+      <c r="J36" s="17">
+        <v>30000</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="17">
+        <v>1</v>
+      </c>
+      <c r="M36" s="23">
+        <v>0</v>
+      </c>
+      <c r="N36" s="23">
+        <v>3</v>
+      </c>
+      <c r="P36" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="R36" s="30">
+        <f t="shared" ref="R36" si="3">N36*N36-P36</f>
+        <v>7.3</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36" s="19">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="X36" s="19">
+        <v>5.978E-5</v>
+      </c>
+      <c r="Y36" s="19">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="Z36" s="19">
+        <v>1.4350000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" s="19">
+        <v>3.3160000000000001E-5</v>
+      </c>
+      <c r="X37" s="19">
+        <v>3.2249999999999998E-5</v>
+      </c>
+      <c r="Y37" s="19">
+        <v>1.92E-4</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>4.28E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="V38" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W38" s="19">
+        <v>5.3100000000000003E-5</v>
+      </c>
+      <c r="X38" s="19">
+        <v>5.1400000000000003E-5</v>
+      </c>
+      <c r="Y38" s="19">
+        <v>5.7299999999999997E-5</v>
+      </c>
+      <c r="Z38" s="19">
+        <v>1.34E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39" s="29">
+        <v>3.4870000000000003E-5</v>
+      </c>
+      <c r="X39" s="29">
+        <v>3.7299999999999999E-5</v>
+      </c>
+      <c r="Y39" s="29">
+        <v>4.7179999999999998E-4</v>
+      </c>
+      <c r="Z39" s="29">
+        <v>8.2900000000000005E-3</v>
       </c>
     </row>
   </sheetData>
